--- a/output/google_maps_data_Penginapan_Kulon_Progo.xlsx
+++ b/output/google_maps_data_Penginapan_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Penginapan+Kulon+Progo/@-7.8056036,110.2400464,11z/data=!4m2!2m1!6e3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>0823-8803-1130</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>-7.802254</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.802254</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.235069</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Private+Villa+-+Arimbi+Resort/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af74b4b67bdc5:0xa8ebf9ca4f198baf!5m2!4m1!1i2!8m2!3d-7.8022542!4d110.235069!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFdmlsbGHgAQA!16s%2Fg%2F11tc2tjtgw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -572,22 +565,21 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-7.773608</v>
+      </c>
       <c r="G4" t="n">
-        <v>-7.773608</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.179679</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisma+Pancoeran/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af19cb95b4e89:0x62a26f18a40a75fa!5m2!4m1!1i2!8m2!3d-7.773608!4d110.1796793!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11f5lygvbg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -606,25 +598,24 @@
           <t>0813-9102-5207</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.752379</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.752379</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.205545</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Joglo+Menoreh+Resto/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af1180148154f:0x18659a4ac6960c57!5m2!4m1!1i2!8m2!3d-7.7523794!4d110.2055448!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11n0zp7s6k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Joglo+Menoreh+Resto/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af1180148154f:0x18659a4ac6960c57!5m2!4m1!1i2!8m2!3d-7.7523794!4d110.2055448!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11n0zp7s6k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -652,25 +643,24 @@
           <t>0812-2620-9870</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.9</v>
+        <v>-7.855324</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.855324</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.283503</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Ndoro+SugihArti/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af9df0d515ae1:0xebd8104262561b17!5m2!4m1!1i2!8m2!3d-7.8553241!4d110.2835033!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFdmlsbGHgAQA!16s%2Fg%2F11kq68f_w9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Ndoro+SugihArti/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af9df0d515ae1:0xebd8104262561b17!5m2!4m1!1i2!8m2!3d-7.8553241!4d110.2835033!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFdmlsbGHgAQA!16s%2Fg%2F11kq68f_w9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -698,25 +688,24 @@
           <t>0853-2626-6868</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>-7.860672</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.860672</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.297899</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dewisri+Homestay/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af9bdffbe53a3:0x46923f27ac321f53!5m2!4m1!1i2!8m2!3d-7.8606717!4d110.2978994!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11qnljxlw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dewisri+Homestay/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af9bdffbe53a3:0x46923f27ac321f53!5m2!4m1!1i2!8m2!3d-7.8606717!4d110.2978994!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11qnljxlw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>6 bulan lalu di 
 Google</t>
@@ -744,25 +733,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>-7.892949</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.892949</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.134514</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Griya+Tetirah+Syariah+Mitra+RedDoorz/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae368a657ec05:0x8a747aa0865e1261!5m2!4m1!1i2!8m2!3d-7.8929495!4d110.1345138!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11r_xy1jnt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Griya+Tetirah+Syariah+Mitra+RedDoorz/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae368a657ec05:0x8a747aa0865e1261!5m2!4m1!1i2!8m2!3d-7.8929495!4d110.1345138!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11r_xy1jnt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -786,25 +774,24 @@
           <t>0821-3484-3189</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>-7.751545</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.751545</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.232456</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gado-gado+BnB/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af12d8015849b:0x64c85ee8810cc1ee!5m2!4m1!1i2!8m2!3d-7.7515455!4d110.2324555!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11f1tcqkw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gado-gado+BnB/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af12d8015849b:0x64c85ee8810cc1ee!5m2!4m1!1i2!8m2!3d-7.7515455!4d110.2324555!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11f1tcqkw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -832,25 +819,24 @@
           <t>0812-8565-0223</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>-7.769206</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.769206</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.189925</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Svarna+Padi+Penginapan+dan+Resto/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af100267c37dd:0x1a80ad2717ade366!5m2!4m1!1i2!8m2!3d-7.7692057!4d110.1899254!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11vsnw9f7r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Svarna+Padi+Penginapan+dan+Resto/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af100267c37dd:0x1a80ad2717ade366!5m2!4m1!1i2!8m2!3d-7.7692057!4d110.1899254!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11vsnw9f7r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -878,25 +864,24 @@
           <t>0822-2622-8323</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>-7.653962</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.653962</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.140932</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rimbono+HomeStay/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af2eff410c6eb:0xc4d4eb7dae681491!5m2!4m1!1i2!8m2!3d-7.6539622!4d110.1409322!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFbG9kZ2XgAQA!16s%2Fg%2F11bc7sqjcr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -919,25 +904,24 @@
           <t>0816-1181-859</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.824246</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.824246</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.2511</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dandaman+Villa/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af96c015a68dd:0x4b0e483586ac3f0c!5m2!4m1!1i2!8m2!3d-7.8242457!4d110.2511002!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFdmlsbGHgAQA!16s%2Fg%2F11vm7m2xh7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -956,25 +940,24 @@
           <t>0815-7726-910</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-7.783757</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.783757</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.241214</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Betakan+Homestay+%26+Cafe/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af71c11dd21e9:0xbfa800102d1a6cd1!5m2!4m1!1i2!8m2!3d-7.7837571!4d110.2412138!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11qq9s180b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Betakan+Homestay+%26+Cafe/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af71c11dd21e9:0xbfa800102d1a6cd1!5m2!4m1!1i2!8m2!3d-7.7837571!4d110.2412138!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11qq9s180b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -995,22 +978,21 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.855362</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.855362</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.161035</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Syariah+Mbak+Ibek+Wates+Kulon+Progo/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7afb007411e79b:0x469b35d596f857ac!5m2!4m1!1i2!8m2!3d-7.8553624!4d110.161035!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11whp9_ltr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1029,25 +1011,24 @@
           <t>(0274) 7723282</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.882581</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.882581</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.046366</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Omah+Soemantri/@-7.8825812,109.757975,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae5f6a9998cff:0x651fcfe6315bc50e!5m2!4m1!1i2!8m2!3d-7.8825812!4d110.0463661!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgERYmVkX2FuZF9icmVha2Zhc3TgAQA!16s%2Fg%2F11nxx4g_1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1066,25 +1047,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.8</v>
+        <v>-7.886698</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.886698</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.079039</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Andono+near+YIA+Mitra+RedDoorz/@-7.8825812,109.757975,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae54f8003dd01:0x4dc917a5a3e4d39d!5m2!4m1!1i2!8m2!3d-7.8866985!4d110.0790385!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11vsph8cy4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1103,25 +1083,24 @@
           <t>0812-2642-3337</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>-7.728507</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.728507</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.263907</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Minggir/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af699e7bdc3e7:0x50fe79db4c9d4cca!5m2!4m1!1i2!8m2!3d-7.7285072!4d110.2639071!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgELY29mZmVlX3Nob3DgAQA!16s%2Fg%2F11dx931086?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Minggir/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af699e7bdc3e7:0x50fe79db4c9d4cca!5m2!4m1!1i2!8m2!3d-7.7285072!4d110.2639071!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgELY29mZmVlX3Nob3DgAQA!16s%2Fg%2F11dx931086?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -1145,25 +1124,24 @@
           <t>(0274) 774994</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>-7.865055</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.865055</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.150964</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hotel+King's/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae47bdd922811:0xb9e3a2230c1472e9!5m2!4m1!1i2!8m2!3d-7.865055!4d110.1509639!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11y31g5qh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hotel+King's/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae47bdd922811:0xb9e3a2230c1472e9!5m2!4m1!1i2!8m2!3d-7.865055!4d110.1509639!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11y31g5qh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 bulan lalu di 
 Google</t>
@@ -1187,25 +1165,24 @@
           <t>0812-3457-6532</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.9</v>
+        <v>-7.827115</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.827115</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.257081</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lasakha+Villa/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af94a5a7a6141:0xbedb64c022add560!5m2!4m1!1i2!8m2!3d-7.8271154!4d110.2570813!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFdmlsbGHgAQA!16s%2Fg%2F11t9pwkvvy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lasakha+Villa/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af94a5a7a6141:0xbedb64c022add560!5m2!4m1!1i2!8m2!3d-7.8271154!4d110.2570813!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFdmlsbGHgAQA!16s%2Fg%2F11t9pwkvvy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>22 jam lalu di 
 Google</t>
@@ -1233,25 +1210,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>-7.884996</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.884996</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.064936</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Elma+Guesthouse+YIA+KulonProgo+Yogyakarta+mitra+RedDoorz/@-7.8849956,109.7765445,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae54d12a827d1:0xff5a92d0d3aadb68!5m2!4m1!1i2!8m2!3d-7.8849956!4d110.0649356!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11vy7cz4bk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1270,25 +1246,24 @@
           <t>0851-5074-5304</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.749033</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.749033</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.207715</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Skye+Nest/@-7.8849956,109.7765445,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7a58f220a9f135:0x3c7a51c42b62a00e!5m2!4m1!1i2!8m2!3d-7.7490326!4d110.2077147!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgELZ3Vlc3RfaG91c2XgAQA!16s%2Fg%2F11f_zp2m4z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
